--- a/04.Data_Graph(3)/04. 2025STB_survey (2).xlsx
+++ b/04.Data_Graph(3)/04. 2025STB_survey (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21911\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\honework\2025xgw\04.Data_Graph(3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEC55C2-3A56-4535-B5DA-C687F1F87ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E84B01-A290-45BA-A92B-3009C74312A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>Age</t>
   </si>
@@ -37,12 +37,22 @@
     <t>Gender</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -472,10 +482,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
@@ -485,7 +495,7 @@
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -502,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -512,14 +522,14 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="8">
-        <v>6</v>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -529,14 +539,14 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
-        <v>7</v>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -546,14 +556,14 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>6</v>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -563,14 +573,14 @@
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>6</v>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -580,14 +590,14 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>6</v>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -597,14 +607,14 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>6</v>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -614,14 +624,14 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>7</v>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -631,14 +641,14 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <v>7</v>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -648,14 +658,14 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
-        <v>10</v>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -665,14 +675,14 @@
       <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
-        <v>7</v>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -682,14 +692,14 @@
       <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
-        <v>7</v>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -699,14 +709,14 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
-        <v>7</v>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -716,14 +726,14 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
-        <v>7</v>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -733,14 +743,14 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
-        <v>7</v>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -750,14 +760,14 @@
       <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
-        <v>7</v>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -767,14 +777,14 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
-        <v>6</v>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -784,14 +794,14 @@
       <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
-        <v>7</v>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E18" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -801,14 +811,14 @@
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
-        <v>6</v>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E19" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -818,14 +828,14 @@
       <c r="C20" s="6">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
-        <v>7</v>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -835,14 +845,14 @@
       <c r="C21" s="2">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
-        <v>6</v>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -852,14 +862,14 @@
       <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
-        <v>7</v>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -869,14 +879,14 @@
       <c r="C23" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="2">
-        <v>7</v>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E23" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -886,14 +896,14 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="1">
-        <v>7</v>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E24" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -903,14 +913,14 @@
       <c r="C25" s="2">
         <v>5</v>
       </c>
-      <c r="D25" s="2">
-        <v>7</v>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E25" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -920,14 +930,14 @@
       <c r="C26" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="1">
-        <v>7</v>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E26" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -937,14 +947,14 @@
       <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="D27" s="2">
-        <v>7</v>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E27" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -954,14 +964,14 @@
       <c r="C28" s="1">
         <v>5</v>
       </c>
-      <c r="D28" s="1">
-        <v>7</v>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -971,14 +981,14 @@
       <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="D29" s="2">
-        <v>7</v>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E29" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -988,14 +998,14 @@
       <c r="C30" s="1">
         <v>5</v>
       </c>
-      <c r="D30" s="1">
-        <v>7</v>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -1005,14 +1015,14 @@
       <c r="C31" s="2">
         <v>5</v>
       </c>
-      <c r="D31" s="2">
-        <v>7</v>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E31" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1022,14 +1032,14 @@
       <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="D32" s="1">
-        <v>7</v>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -1039,14 +1049,14 @@
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="2">
-        <v>7</v>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1056,14 +1066,14 @@
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
-        <v>7</v>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E34" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1073,14 +1083,14 @@
       <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="2">
-        <v>6</v>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1090,14 +1100,14 @@
       <c r="C36" s="1">
         <v>5</v>
       </c>
-      <c r="D36" s="1">
-        <v>7</v>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -1107,14 +1117,14 @@
       <c r="C37" s="2">
         <v>4</v>
       </c>
-      <c r="D37" s="2">
-        <v>7</v>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E37" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1124,14 +1134,14 @@
       <c r="C38" s="1">
         <v>5</v>
       </c>
-      <c r="D38" s="1">
-        <v>7</v>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1141,14 +1151,14 @@
       <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="2">
-        <v>7</v>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E39" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1158,14 +1168,14 @@
       <c r="C40" s="1">
         <v>5</v>
       </c>
-      <c r="D40" s="1">
-        <v>7</v>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E40" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -1175,14 +1185,14 @@
       <c r="C41" s="2">
         <v>5</v>
       </c>
-      <c r="D41" s="2">
-        <v>7</v>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E41" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1192,14 +1202,14 @@
       <c r="C42" s="1">
         <v>3</v>
       </c>
-      <c r="D42" s="1">
-        <v>7</v>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E42" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -1209,14 +1219,14 @@
       <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="2">
-        <v>7</v>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E43" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1226,14 +1236,14 @@
       <c r="C44" s="1">
         <v>5</v>
       </c>
-      <c r="D44" s="1">
-        <v>7</v>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E44" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -1243,14 +1253,14 @@
       <c r="C45" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
-        <v>7</v>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E45" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -1260,14 +1270,14 @@
       <c r="C46" s="1">
         <v>4</v>
       </c>
-      <c r="D46" s="1">
-        <v>7</v>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E46" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -1277,14 +1287,14 @@
       <c r="C47" s="2">
         <v>3</v>
       </c>
-      <c r="D47" s="2">
-        <v>7</v>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E47" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -1294,8 +1304,8 @@
       <c r="C48" s="3">
         <v>5</v>
       </c>
-      <c r="D48" s="3">
-        <v>7</v>
+      <c r="D48" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E48" s="3">
         <v>8</v>
